--- a/articles_translated.xlsx
+++ b/articles_translated.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochizukiyoji/Code/Tool/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54655AE-01C0-6B4B-8DFA-993D1FC36752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>和訳</t>
+  </si>
+  <si>
+    <t>要約</t>
+  </si>
+  <si>
+    <t>A French Armed Forces in New Caledonia service member salutes during the closing ceremony as part of Croix-du-Sud at Noumea, New Caledonia, May 3, 2025. Croix-du-Sud is a 14-day biennial joint/multilateral field training exercise organized and led by the FANC, focusing on disaster relief, crisis events, and enhancing partnership and interoperability between the United States and the militaries of the Oceania countries. Marine Rotational Force – Darwin is an annual six-month rotational deployment to enhance interoperability with the Australian Defence Force and allies and partners and provide a forward-postured crisis response force in the Indo-Pacific. (U.S. Marine Corps photo by Cpl. Anita Ramos)</t>
+  </si>
+  <si>
+    <t>2025年5月3日、ニューカレドニアのヌメアで行われたクロワ・デュ・スッドの閉会式で、ニューカレドニアのフランス軍の隊員が敬礼しました。クロワ・デュ・スッドは、FANCが主催・指導する14日間の隔年の合同・多国間フィールド訓練演習で、災害救援や危機事象に焦点を当て、アメリカとオセアニア諸国の軍隊とのパートナーシップと相互運用性の強化を目的としています。マリーン・ローテーショナル・フォース・ダーウィンは、オーストラリア国防軍および同盟国やパートナーとの相互運用性を高め、インド太平洋地域での前方配置された危機対応部隊を提供するための年間6か月のローテーション配備です。（アメリカ海兵隊、アニータ・ラモス伍長による写真）</t>
+  </si>
+  <si>
+    <t>ニューカレドニアでのクロワ・デュ・スッド演習は、災害救援や危機対応を目的とし、アメリカやオセアニア諸国との軍事協力を強化するための訓練です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Armed Forces New Caledonia service members talk to Croix-Du-Sud participants before the closing ceremony as part of Croix-du-Sud at Noumea, New Caledonia, May 3, 2025. Croix-du-Sud is a 14-day biennial joint/multilateral field training exercise organized and led by the FANC, focusing on disaster relief, crisis events, and enhancing partnership and interoperability between the United States and the militaries of the Oceania countries. Marine Rotational Force – Darwin is an annual six-month rotational deployment to enhance interoperability with the Australian Defence Force and allies and partners and provide a forward-postured crisis response force in the Indo-Pacific. (U.S. Marine Corps photo by Cpl. Anita Ramos)
+</t>
+  </si>
+  <si>
+    <t>フランス軍ニューカレドニアの隊員が、2025年5月3日にニューカレドニアのヌメアで行われたクロワ・デュ・スッドの閉会式前に参加者に話しかけています。クロワ・デュ・スッドは、FANCが主催・指導する14日間の隔年で行われる合同・多国間のフィールド訓練演習で、災害救援や危機対応、アメリカとオセアニア諸国の軍隊とのパートナーシップと相互運用性の向上を目的としています。マリーン・ローテーショナル・フォース・ダーウィンは、オーストラリア国防軍や同盟国、パートナーとの相互運用性を高め、インド太平洋地域での前線危機対応部隊を提供するための年間6ヶ月のローテーション配備です。（米海兵隊のアニータ・ラモス伍長による写真）</t>
+  </si>
+  <si>
+    <t>クロワ・デュ・スッドは、ニューカレドニアで行われる災害救援や危機対応を目的とした多国間合同訓練で、米国とオセアニア諸国の軍の協力を強化します。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +97,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,79 +427,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="4" width="67.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>本文</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>和訳</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>要約</t>
-        </is>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A French Armed Forces in New Caledonia service member salutes during the closing ceremony as part of Croix-du-Sud at Noumea, New Caledonia, May 3, 2025. Croix-du-Sud is a 14-day biennial joint/multilateral field training exercise organized and led by the FANC, focusing on disaster relief, crisis events, and enhancing partnership and interoperability between the United States and the militaries of the Oceania countries. Marine Rotational Force – Darwin is an annual six-month rotational deployment to enhance interoperability with the Australian Defence Force and allies and partners and provide a forward-postured crisis response force in the Indo-Pacific. (U.S. Marine Corps photo by Cpl. Anita Ramos)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025年5月3日、ニューカレドニアのヌメアで行われたクロワ・デュ・スッドの閉会式で、ニューカレドニアのフランス軍の隊員が敬礼しました。クロワ・デュ・スッドは、FANCが主催・指導する14日間の隔年の合同・多国間フィールド訓練演習で、災害救援や危機事象に焦点を当て、アメリカとオセアニア諸国の軍隊とのパートナーシップと相互運用性の強化を目的としています。マリーン・ローテーショナル・フォース・ダーウィンは、オーストラリア国防軍および同盟国やパートナーとの相互運用性を高め、インド太平洋地域での前方配置された危機対応部隊を提供するための年間6か月のローテーション配備です。（アメリカ海兵隊、アニータ・ラモス伍長による写真）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ニューカレドニアでのクロワ・デュ・スッド演習は、災害救援や危機対応を目的とし、アメリカやオセアニア諸国との軍事協力を強化するための訓練です。</t>
-        </is>
+    <row r="2" spans="1:4" ht="135">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">French Armed Forces New Caledonia service members talk to Croix-Du-Sud participants before the closing ceremony as part of Croix-du-Sud at Noumea, New Caledonia, May 3, 2025. Croix-du-Sud is a 14-day biennial joint/multilateral field training exercise organized and led by the FANC, focusing on disaster relief, crisis events, and enhancing partnership and interoperability between the United States and the militaries of the Oceania countries. Marine Rotational Force – Darwin is an annual six-month rotational deployment to enhance interoperability with the Australian Defence Force and allies and partners and provide a forward-postured crisis response force in the Indo-Pacific. (U.S. Marine Corps photo by Cpl. Anita Ramos)
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>フランス軍ニューカレドニアの隊員が、2025年5月3日にニューカレドニアのヌメアで行われたクロワ・デュ・スッドの閉会式前に参加者に話しかけています。クロワ・デュ・スッドは、FANCが主催・指導する14日間の隔年で行われる合同・多国間のフィールド訓練演習で、災害救援や危機対応、アメリカとオセアニア諸国の軍隊とのパートナーシップと相互運用性の向上を目的としています。マリーン・ローテーショナル・フォース・ダーウィンは、オーストラリア国防軍や同盟国、パートナーとの相互運用性を高め、インド太平洋地域での前線危機対応部隊を提供するための年間6ヶ月のローテーション配備です。（米海兵隊のアニータ・ラモス伍長による写真）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>クロワ・デュ・スッドは、ニューカレドニアで行われる災害救援や危機対応を目的とした多国間合同訓練で、米国とオセアニア諸国の軍の協力を強化します。</t>
-        </is>
+    <row r="3" spans="1:4" ht="150">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>